--- a/v0.1/v0.1.xlsx
+++ b/v0.1/v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\米瑟\Desktop\harmbook2\Harmbook-Project-Documents\v0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\米瑟\Desktop\harmbook2\Harmbook-Project-Documents2\Harmbook-Project-Docments\v0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F1BB5-0B7A-42D9-BF24-FFC0E559D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D902B-C9D5-4B0A-8B0E-317CA0DF3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="运维用户功能模块" sheetId="5" r:id="rId5"/>
     <sheet name="赛事功能模块" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3218,6 +3218,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3240,9 +3243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11630,14 +11630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -11660,13 +11660,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>236</v>
       </c>
       <c r="D3" s="42" t="s">
@@ -11680,9 +11680,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="43"/>
       <c r="E4" s="2" t="s">
         <v>234</v>
@@ -11692,10 +11692,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="2" t="s">
         <v>241</v>
       </c>
@@ -11704,9 +11704,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="42" t="s">
         <v>240</v>
       </c>
@@ -11718,10 +11718,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="44"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="2" t="s">
         <v>242</v>
       </c>
@@ -11730,9 +11730,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="42" t="s">
         <v>247</v>
       </c>
@@ -11744,9 +11744,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="43"/>
       <c r="E9" s="2" t="s">
         <v>248</v>
@@ -11756,9 +11756,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="43"/>
       <c r="E10" s="2" t="s">
         <v>249</v>
@@ -11768,9 +11768,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="43"/>
       <c r="E11" s="2" t="s">
         <v>251</v>
@@ -11780,9 +11780,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="43"/>
       <c r="E12" s="2" t="s">
         <v>447</v>
@@ -11792,9 +11792,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="43"/>
       <c r="E13" s="2" t="s">
         <v>253</v>
@@ -11804,10 +11804,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="44"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="2" t="s">
         <v>252</v>
       </c>
@@ -11816,9 +11816,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="42" t="s">
         <v>261</v>
       </c>
@@ -11830,9 +11830,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="43"/>
       <c r="E16" s="2" t="s">
         <v>262</v>
@@ -11842,9 +11842,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="43" t="s">
         <v>423</v>
       </c>
@@ -11856,9 +11856,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="43"/>
       <c r="E18" s="2" t="s">
         <v>427</v>
@@ -11868,9 +11868,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="43"/>
       <c r="E19" s="2" t="s">
         <v>425</v>
@@ -11880,9 +11880,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="43" t="s">
         <v>259</v>
       </c>
@@ -11894,9 +11894,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="43"/>
       <c r="E21" s="2" t="s">
         <v>502</v>
@@ -11906,10 +11906,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="44"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="2" t="s">
         <v>260</v>
       </c>
@@ -11918,9 +11918,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="42" t="s">
         <v>254</v>
       </c>
@@ -11932,9 +11932,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="43"/>
       <c r="E24" s="2" t="s">
         <v>255</v>
@@ -11944,9 +11944,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="43" t="s">
         <v>424</v>
       </c>
@@ -11958,9 +11958,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
       <c r="D26" s="43"/>
       <c r="E26" s="2" t="s">
         <v>429</v>
@@ -11970,9 +11970,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="43"/>
       <c r="E27" s="2" t="s">
         <v>510</v>
@@ -11982,9 +11982,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="43"/>
       <c r="E28" s="2" t="s">
         <v>430</v>
@@ -11994,9 +11994,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="43"/>
       <c r="E29" s="2" t="s">
         <v>431</v>
@@ -12006,9 +12006,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="43" t="s">
         <v>433</v>
       </c>
@@ -12020,9 +12020,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="43"/>
       <c r="E31" s="2" t="s">
         <v>514</v>
@@ -12032,9 +12032,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="43"/>
       <c r="E32" s="2" t="s">
         <v>435</v>
@@ -12044,9 +12044,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
       <c r="D33" s="42" t="s">
         <v>257</v>
       </c>
@@ -12058,9 +12058,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="43"/>
       <c r="E34" s="2" t="s">
         <v>244</v>
@@ -12070,9 +12070,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="43"/>
       <c r="E35" s="2" t="s">
         <v>245</v>
@@ -12082,9 +12082,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="43"/>
       <c r="E36" s="2" t="s">
         <v>515</v>
@@ -12094,9 +12094,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="43"/>
       <c r="E37" s="2" t="s">
         <v>258</v>
@@ -12106,10 +12106,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="44"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="2" t="s">
         <v>246</v>
       </c>
@@ -12118,9 +12118,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51" t="s">
         <v>237</v>
       </c>
       <c r="D39" s="42" t="s">
@@ -12134,9 +12134,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="43"/>
       <c r="E40" s="2" t="s">
         <v>441</v>
@@ -12146,9 +12146,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="48"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="43"/>
       <c r="E41" s="2" t="s">
         <v>440</v>
@@ -12158,9 +12158,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="43"/>
       <c r="E42" s="2" t="s">
         <v>437</v>
@@ -12170,9 +12170,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="42" t="s">
         <v>421</v>
       </c>
@@ -12184,9 +12184,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="43"/>
       <c r="E44" s="2" t="s">
         <v>442</v>
@@ -12196,9 +12196,9 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="43"/>
       <c r="E45" s="2" t="s">
         <v>450</v>
@@ -12208,9 +12208,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
       <c r="D46" s="43"/>
       <c r="E46" s="2" t="s">
         <v>529</v>
@@ -12220,9 +12220,9 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="43"/>
       <c r="E47" s="2" t="s">
         <v>314</v>
@@ -12232,9 +12232,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="43"/>
       <c r="E48" s="2" t="s">
         <v>451</v>
@@ -12244,10 +12244,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="44"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="2" t="s">
         <v>439</v>
       </c>
@@ -12256,9 +12256,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="42" t="s">
         <v>422</v>
       </c>
@@ -12270,9 +12270,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="43"/>
       <c r="E51" s="2" t="s">
         <v>446</v>
@@ -12282,9 +12282,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="43"/>
       <c r="E52" s="2" t="s">
         <v>445</v>
@@ -12294,9 +12294,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="43"/>
       <c r="E53" s="2" t="s">
         <v>449</v>
@@ -12306,9 +12306,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="43"/>
       <c r="E54" s="2" t="s">
         <v>448</v>
@@ -12318,10 +12318,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="44"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="2" t="s">
         <v>444</v>
       </c>
@@ -12330,9 +12330,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="48"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="43" t="s">
         <v>542</v>
       </c>
@@ -12344,10 +12344,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="48"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="44"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="2" t="s">
         <v>453</v>
       </c>
@@ -12356,11 +12356,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="48"/>
-      <c r="B58" s="50" t="s">
+      <c r="A58" s="49"/>
+      <c r="B58" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="51" t="s">
         <v>238</v>
       </c>
       <c r="D58" s="42" t="s">
@@ -12374,9 +12374,9 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="48"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="43"/>
       <c r="E59" s="2" t="s">
         <v>464</v>
@@ -12386,9 +12386,9 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="48"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="43"/>
       <c r="E60" s="2" t="s">
         <v>469</v>
@@ -12398,10 +12398,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="44"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="45"/>
       <c r="E61" s="2" t="s">
         <v>458</v>
       </c>
@@ -12410,9 +12410,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="48"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="42" t="s">
         <v>455</v>
       </c>
@@ -12424,9 +12424,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="48"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="43"/>
       <c r="E63" s="2" t="s">
         <v>471</v>
@@ -12436,9 +12436,9 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="48"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="43"/>
       <c r="E64" s="2" t="s">
         <v>468</v>
@@ -12448,9 +12448,9 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="48"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="42" t="s">
         <v>456</v>
       </c>
@@ -12462,9 +12462,9 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="48"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
       <c r="D66" s="43"/>
       <c r="E66" s="2" t="s">
         <v>466</v>
@@ -12474,9 +12474,9 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="43"/>
       <c r="E67" s="2" t="s">
         <v>445</v>
@@ -12486,9 +12486,9 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="48"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="43"/>
       <c r="E68" s="2" t="s">
         <v>488</v>
@@ -12498,9 +12498,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="48"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="43"/>
       <c r="E69" s="2" t="s">
         <v>462</v>
@@ -12510,9 +12510,9 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="48"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="43"/>
       <c r="E70" s="2" t="s">
         <v>503</v>
@@ -12522,9 +12522,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="48"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="43"/>
       <c r="E71" s="2" t="s">
         <v>559</v>
@@ -12534,9 +12534,9 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="48"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="43"/>
       <c r="E72" s="2" t="s">
         <v>461</v>
@@ -12546,9 +12546,9 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="48"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="43"/>
       <c r="E73" s="2" t="s">
         <v>490</v>
@@ -12558,9 +12558,9 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="48"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="43"/>
       <c r="E74" s="2" t="s">
         <v>465</v>
@@ -12570,9 +12570,9 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="48"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="43"/>
       <c r="E75" s="2" t="s">
         <v>460</v>
@@ -12582,9 +12582,9 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="48"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="43"/>
       <c r="E76" s="2" t="s">
         <v>470</v>
@@ -12594,9 +12594,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="48"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="43"/>
       <c r="E77" s="2" t="s">
         <v>473</v>
@@ -12606,9 +12606,9 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="48"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="43"/>
       <c r="E78" s="2" t="s">
         <v>472</v>
@@ -12618,10 +12618,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="48"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="44"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="45"/>
       <c r="E79" s="2" t="s">
         <v>459</v>
       </c>
@@ -12630,9 +12630,9 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="48"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50" t="s">
+      <c r="A80" s="49"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51" t="s">
         <v>239</v>
       </c>
       <c r="D80" s="42" t="s">
@@ -12646,9 +12646,9 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="48"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
+      <c r="A81" s="49"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="43"/>
       <c r="E81" s="2" t="s">
         <v>484</v>
@@ -12658,9 +12658,9 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="43"/>
       <c r="E82" s="2" t="s">
         <v>478</v>
@@ -12670,9 +12670,9 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="48"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
+      <c r="A83" s="49"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="43"/>
       <c r="E83" s="2" t="s">
         <v>480</v>
@@ -12682,10 +12682,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="48"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="44"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="2" t="s">
         <v>477</v>
       </c>
@@ -12694,9 +12694,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="48"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="42" t="s">
         <v>475</v>
       </c>
@@ -12708,9 +12708,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="48"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="43"/>
       <c r="E86" s="2" t="s">
         <v>482</v>
@@ -12720,9 +12720,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="48"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="43"/>
       <c r="E87" s="2" t="s">
         <v>483</v>
@@ -12732,10 +12732,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="49"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="44"/>
       <c r="E88" s="6" t="s">
         <v>481</v>
       </c>
@@ -12745,17 +12745,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D65:D79"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D30:D32"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A88"/>
@@ -12772,6 +12761,17 @@
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="D43:D49"/>
     <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D79"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12783,8 +12783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863B0144-2F71-461A-8297-14A0E5DF4556}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12796,14 +12796,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
